--- a/tables/greenhouse_gas_emissions_by_country_2018.xlsx
+++ b/tables/greenhouse_gas_emissions_by_country_2018.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="125725"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="67">
   <si>
     <t>млн тонн СО2 эквивалента</t>
   </si>
@@ -103,13 +103,130 @@
   </si>
   <si>
     <t xml:space="preserve">в т.ч. Казахстан </t>
+  </si>
+  <si>
+    <t>13 739,8</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>6 297,6</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>3 924,9</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>3 619,8</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>2 313,7</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>1 270,2</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1 259,5</t>
+  </si>
+  <si>
+    <t>1 074,2</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>926,4</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>801,4</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>762,1</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>758,1</t>
+  </si>
+  <si>
+    <t>750,6</t>
+  </si>
+  <si>
+    <t>582,0</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>579,2</t>
+  </si>
+  <si>
+    <t>574,0</t>
+  </si>
+  <si>
+    <t>504,6</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>434,8</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>418,8</t>
+  </si>
+  <si>
+    <t>398,7</t>
+  </si>
+  <si>
+    <t>40 990,4</t>
+  </si>
+  <si>
+    <t>80,1%</t>
+  </si>
+  <si>
+    <t>10 209,5</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>367,8</t>
+  </si>
+  <si>
+    <t>0,7%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,16 +234,185 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8696B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEAF1DD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDB47A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFECC7E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFECF7F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFDC82"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE784"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE984"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEA84"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB84"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7E883"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6E883"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3E783"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB3D57F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB2D47F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB0D47F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF96CC7D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7CC57C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF76C37C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6EC17B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFA8D72"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF63BE7B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -134,16 +420,173 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -417,7 +860,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -427,348 +870,350 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection sqref="A1:D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="37"/>
+    </row>
+    <row r="2" spans="1:4" ht="90.75" thickBot="1">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
+    <row r="3" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1">
-        <v>13739.8</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0.26800000000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
+      <c r="C3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A4" s="7">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1">
-        <v>6297.6</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
+      <c r="C4" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1">
-        <v>3924.9</v>
-      </c>
-      <c r="D5" s="2">
-        <v>7.6999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
+      <c r="C5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A6" s="7">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="1">
-        <v>3619.8</v>
-      </c>
-      <c r="D6" s="2">
-        <v>7.0999999999999994E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
+      <c r="C6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="1">
-        <v>2313.6999999999998</v>
-      </c>
-      <c r="D7" s="2">
-        <v>4.4999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
+      <c r="C7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A8" s="7">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="1">
-        <v>1270.2</v>
-      </c>
-      <c r="D8" s="2">
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
+      <c r="C8" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="1">
-        <v>1259.5</v>
-      </c>
-      <c r="D9" s="2">
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
+      <c r="C9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A10" s="7">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="1">
-        <v>1074.2</v>
-      </c>
-      <c r="D10" s="2">
-        <v>2.1000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11">
+      <c r="C10" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C11">
-        <v>926.4</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12">
+      <c r="C11" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A12" s="7">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C12">
-        <v>801.4</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1.6E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13">
+      <c r="C12" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C13">
-        <v>762.1</v>
-      </c>
-      <c r="D13" s="2">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14">
+      <c r="C13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A14" s="7">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C14">
-        <v>758.1</v>
-      </c>
-      <c r="D14" s="2">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15">
+      <c r="C14" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C15">
-        <v>750.6</v>
-      </c>
-      <c r="D15" s="2">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16">
+      <c r="C15" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A16" s="7">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C16">
-        <v>582</v>
-      </c>
-      <c r="D16" s="2">
-        <v>1.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17">
+      <c r="C16" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C17">
-        <v>579.20000000000005</v>
-      </c>
-      <c r="D17" s="2">
-        <v>1.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18">
+      <c r="C17" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A18" s="7">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C18">
-        <v>574</v>
-      </c>
-      <c r="D18" s="2">
-        <v>1.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19">
+      <c r="C18" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A19" s="3">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C19">
-        <v>504.6</v>
-      </c>
-      <c r="D19" s="2">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20">
+      <c r="C19" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A20" s="7">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C20">
-        <v>434.8</v>
-      </c>
-      <c r="D20" s="2">
-        <v>8.0000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21">
+      <c r="C20" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A21" s="3">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C21">
-        <v>418.8</v>
-      </c>
-      <c r="D21" s="2">
-        <v>8.0000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22">
+      <c r="C21" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A22" s="7">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C22">
-        <v>398.7</v>
-      </c>
-      <c r="D22" s="2">
-        <v>8.0000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="B23" t="s">
+      <c r="C22" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A23" s="28"/>
+      <c r="B23" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="1">
-        <v>40990.400000000001</v>
-      </c>
-      <c r="D23" s="2">
-        <v>0.80100000000000005</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="B24" t="s">
+      <c r="C23" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A24" s="29"/>
+      <c r="B24" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="1">
-        <v>10209.5</v>
-      </c>
-      <c r="D24" s="2">
-        <v>0.19900000000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25">
+      <c r="C24" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A25" s="31">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C25">
-        <v>367.8</v>
-      </c>
-      <c r="D25" s="2">
-        <v>7.0000000000000001E-3</v>
+      <c r="C25" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
